--- a/va_facility_data_2025-02-20/Tavares VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tavares%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tavares VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tavares%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0968439338a14f8791b8966efb24ef00"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R698f1a3ac9204d2abe75891f749caa70"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b25a6113f7e4111abbd2b87f3c66b40"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra9b296ff47ee423d84df2f6da5f56f8d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0133ea9d040243689f1a08fa14959c8b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R90c050857ce54bffac84d3faaccf0691"/>
   </x:sheets>
 </x:workbook>
 </file>
